--- a/Buyer hub/Reports/Manual testcases/Reports Spending per suppplier.xlsx
+++ b/Buyer hub/Reports/Manual testcases/Reports Spending per suppplier.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testcases one group\Buyer hub\Reports\Manual testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Reports\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BA7775-67E2-41CA-A815-B8FC19DAC00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A566932-AE23-4EA4-A69F-3AAFBEAFC6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -402,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -418,9 +418,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -705,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:F6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,7 +824,7 @@
       <c r="D5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F5" t="s">
